--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.86672567969666</v>
+        <v>120.6815777201262</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.8008392994657</v>
+        <v>165.1218587320583</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.4128293733813</v>
+        <v>149.3628602847006</v>
       </c>
       <c r="AD2" t="n">
-        <v>94866.72567969665</v>
+        <v>120681.5777201262</v>
       </c>
       <c r="AE2" t="n">
-        <v>129800.8392994657</v>
+        <v>165121.8587320583</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.690207685806809e-06</v>
+        <v>6.761705515922768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>117412.8293733813</v>
+        <v>149362.8602847006</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.34224817973696</v>
+        <v>91.60907327925474</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7183437079929</v>
+        <v>125.3435755677025</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.01048774711963</v>
+        <v>113.3809606363672</v>
       </c>
       <c r="AD3" t="n">
-        <v>74342.24817973695</v>
+        <v>91609.07327925475</v>
       </c>
       <c r="AE3" t="n">
-        <v>101718.3437079929</v>
+        <v>125343.5755677025</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.022966967856385e-06</v>
+        <v>8.683097145573319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.046296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>92010.48774711962</v>
+        <v>113380.9606363672</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.1124097365893</v>
+        <v>79.46448618212766</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.98493920769359</v>
+        <v>108.7268157200524</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.87409588684278</v>
+        <v>98.3500810268026</v>
       </c>
       <c r="AD4" t="n">
-        <v>62112.4097365893</v>
+        <v>79464.48618212766</v>
       </c>
       <c r="AE4" t="n">
-        <v>84984.93920769359</v>
+        <v>108726.8157200524</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.59431457511561e-06</v>
+        <v>9.50678865910795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>76874.09588684278</v>
+        <v>98350.0810268026</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.90935378026709</v>
+        <v>78.09083802521326</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.33886497317144</v>
+        <v>106.8473297106834</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.38512066698321</v>
+        <v>96.64997052429199</v>
       </c>
       <c r="AD5" t="n">
-        <v>60909.35378026709</v>
+        <v>78090.83802521326</v>
       </c>
       <c r="AE5" t="n">
-        <v>83338.86497317144</v>
+        <v>106847.3297106834</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.811950799445255e-06</v>
+        <v>9.82054705896892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.461805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>75385.12066698322</v>
+        <v>96649.97052429199</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.67931447734779</v>
+        <v>76.86079872229396</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.65587093341392</v>
+        <v>105.1643356709259</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.86274921628265</v>
+        <v>95.12759907359143</v>
       </c>
       <c r="AD6" t="n">
-        <v>59679.3144773478</v>
+        <v>76860.79872229397</v>
       </c>
       <c r="AE6" t="n">
-        <v>81655.87093341393</v>
+        <v>105164.3356709259</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.004535749883678e-06</v>
+        <v>1.009818992873007e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>73862.74921628265</v>
+        <v>95127.59907359142</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.03534354061633</v>
+        <v>76.21682778556249</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.77476148778572</v>
+        <v>104.2832262252977</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.06573161950004</v>
+        <v>94.33058147680882</v>
       </c>
       <c r="AD7" t="n">
-        <v>59035.34354061633</v>
+        <v>76216.82778556249</v>
       </c>
       <c r="AE7" t="n">
-        <v>80774.76148778573</v>
+        <v>104283.2262252977</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.068713227231849e-06</v>
+        <v>1.019071231401726e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>73065.73161950005</v>
+        <v>94330.58147680882</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.99153740969909</v>
+        <v>75.17302165464525</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.34657988998899</v>
+        <v>102.8550446275009</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.77385366893111</v>
+        <v>93.0387035262399</v>
       </c>
       <c r="AD8" t="n">
-        <v>57991.53740969909</v>
+        <v>75173.02165464526</v>
       </c>
       <c r="AE8" t="n">
-        <v>79346.57988998899</v>
+        <v>102855.0446275009</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.219861164881637e-06</v>
+        <v>1.04086169170095e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.207175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>71773.85366893111</v>
+        <v>93038.7035262399</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.11557908999929</v>
+        <v>75.29706333494546</v>
       </c>
       <c r="AB9" t="n">
-        <v>79.51629918930834</v>
+        <v>103.0247639268203</v>
       </c>
       <c r="AC9" t="n">
-        <v>71.92737519652603</v>
+        <v>93.19222505383479</v>
       </c>
       <c r="AD9" t="n">
-        <v>58115.57908999929</v>
+        <v>75297.06333494546</v>
       </c>
       <c r="AE9" t="n">
-        <v>79516.29918930834</v>
+        <v>103024.7639268203</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.196490479595274e-06</v>
+        <v>1.037492423169625e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>71927.37519652603</v>
+        <v>93192.22505383479</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.26737700134413</v>
+        <v>101.5196476663529</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.352389892404</v>
+        <v>138.9036606678076</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.39314426059842</v>
+        <v>125.6468902462215</v>
       </c>
       <c r="AD2" t="n">
-        <v>76267.37700134412</v>
+        <v>101519.6476663529</v>
       </c>
       <c r="AE2" t="n">
-        <v>104352.3898924041</v>
+        <v>138903.6606678076</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.49923641492171e-06</v>
+        <v>8.050675235929903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.717592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>94393.14426059842</v>
+        <v>125646.8902462215</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.08258291907977</v>
+        <v>85.24951272951689</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.20764060633937</v>
+        <v>116.6421442595453</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.36185876603786</v>
+        <v>105.5099817197222</v>
       </c>
       <c r="AD3" t="n">
-        <v>60082.58291907977</v>
+        <v>85249.51272951689</v>
       </c>
       <c r="AE3" t="n">
-        <v>82207.64060633937</v>
+        <v>116642.1442595453</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.735505182176636e-06</v>
+        <v>9.860526204054631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>74361.85876603785</v>
+        <v>105509.9817197222</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.95182750341226</v>
+        <v>74.70142326739752</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.29224704432995</v>
+        <v>102.2097829086164</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.72470627380514</v>
+        <v>92.45502468017499</v>
       </c>
       <c r="AD4" t="n">
-        <v>57951.82750341226</v>
+        <v>74701.42326739752</v>
       </c>
       <c r="AE4" t="n">
-        <v>79292.24704432995</v>
+        <v>102209.7829086164</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.167751031980204e-06</v>
+        <v>1.049331786753081e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.386574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>71724.70627380515</v>
+        <v>92455.02468017499</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.34421890127764</v>
+        <v>73.09381466526291</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.09264603220443</v>
+        <v>100.0101818964909</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.73503209511675</v>
+        <v>90.46535050148661</v>
       </c>
       <c r="AD5" t="n">
-        <v>56344.21890127764</v>
+        <v>73093.81466526291</v>
       </c>
       <c r="AE5" t="n">
-        <v>77092.64603220443</v>
+        <v>100010.1818964909</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.478570351578771e-06</v>
+        <v>1.094834565872578e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.201388888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>69735.03209511675</v>
+        <v>90465.35050148661</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.62281477970988</v>
+        <v>72.37241054369514</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.10558908697222</v>
+        <v>99.02312495125869</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.84217847939409</v>
+        <v>89.57249688576395</v>
       </c>
       <c r="AD6" t="n">
-        <v>55622.81477970988</v>
+        <v>72372.41054369514</v>
       </c>
       <c r="AE6" t="n">
-        <v>76105.58908697222</v>
+        <v>99023.12495125869</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.545775997155319e-06</v>
+        <v>1.104673219564383e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>68842.17847939409</v>
+        <v>89572.49688576395</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.31120081680686</v>
+        <v>72.06079658079211</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.67922511549072</v>
+        <v>98.59676097977719</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.45650608694505</v>
+        <v>89.1868244933149</v>
       </c>
       <c r="AD7" t="n">
-        <v>55311.20081680686</v>
+        <v>72060.79658079211</v>
       </c>
       <c r="AE7" t="n">
-        <v>75679.22511549073</v>
+        <v>98596.76097977719</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.617490994860285e-06</v>
+        <v>1.115172025444078e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>68456.50608694505</v>
+        <v>89186.8244933149</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.4008744075449</v>
+        <v>65.85020053000382</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.96069989402959</v>
+        <v>90.09914947093255</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.37918748310864</v>
+        <v>81.50021310039904</v>
       </c>
       <c r="AD2" t="n">
-        <v>50400.87440754491</v>
+        <v>65850.20053000381</v>
       </c>
       <c r="AE2" t="n">
-        <v>68960.69989402959</v>
+        <v>90099.14947093255</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.137418968194541e-06</v>
+        <v>1.258959156914139e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>62379.18748310865</v>
+        <v>81500.21310039904</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.59539368407241</v>
+        <v>64.04471980653132</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.49036151598781</v>
+        <v>87.62881109289076</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.1446147327247</v>
+        <v>79.26564035001509</v>
       </c>
       <c r="AD3" t="n">
-        <v>48595.39368407241</v>
+        <v>64044.71980653132</v>
       </c>
       <c r="AE3" t="n">
-        <v>66490.36151598781</v>
+        <v>87628.81109289076</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.7442031447647e-06</v>
+        <v>1.352836158743516e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>60144.6147327247</v>
+        <v>79265.64035001509</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.9959672656188</v>
+        <v>79.97502294628062</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.61615278051841</v>
+        <v>109.4253546440585</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.30401469060901</v>
+        <v>98.98195237630736</v>
       </c>
       <c r="AD2" t="n">
-        <v>55995.9672656188</v>
+        <v>79975.02294628062</v>
       </c>
       <c r="AE2" t="n">
-        <v>76616.1527805184</v>
+        <v>109425.3546440585</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.050337518976987e-06</v>
+        <v>1.065513256789213e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.762731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>69304.01469060901</v>
+        <v>98981.95237630737</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.97561004105178</v>
+        <v>67.93328971852016</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.11532266022564</v>
+        <v>92.94932399806825</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.32817607653169</v>
+        <v>84.07837097091088</v>
       </c>
       <c r="AD3" t="n">
-        <v>51975.61004105178</v>
+        <v>67933.28971852016</v>
       </c>
       <c r="AE3" t="n">
-        <v>71115.32266022565</v>
+        <v>92949.32399806826</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.138359728315346e-06</v>
+        <v>1.229945397039334e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>64328.17607653169</v>
+        <v>84078.37097091088</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.80463293882249</v>
+        <v>66.69834776491267</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.56718719400693</v>
+        <v>91.25962193534946</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.97761704778617</v>
+        <v>82.54993170154569</v>
       </c>
       <c r="AD4" t="n">
-        <v>42804.63293882248</v>
+        <v>66698.34776491267</v>
       </c>
       <c r="AE4" t="n">
-        <v>58567.18719400693</v>
+        <v>91259.62193534945</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.389834371156026e-06</v>
+        <v>1.267950608133391e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.998842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>52977.61704778617</v>
+        <v>82549.93170154569</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.7728327749015</v>
+        <v>61.80520470316303</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.99665327434886</v>
+        <v>84.56460772803042</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.88890250572548</v>
+        <v>76.49388025365963</v>
       </c>
       <c r="AD2" t="n">
-        <v>46772.8327749015</v>
+        <v>61805.20470316303</v>
       </c>
       <c r="AE2" t="n">
-        <v>63996.65327434886</v>
+        <v>84564.60772803043</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.943261067150388e-06</v>
+        <v>1.413471671112912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>57888.90250572548</v>
+        <v>76493.88025365962</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.70746627687571</v>
+        <v>61.73983820513723</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.90721594798364</v>
+        <v>84.47517040166522</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.80800095226246</v>
+        <v>76.4129787001966</v>
       </c>
       <c r="AD3" t="n">
-        <v>46707.46627687571</v>
+        <v>61739.83820513723</v>
       </c>
       <c r="AE3" t="n">
-        <v>63907.21594798364</v>
+        <v>84475.17040166522</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.007924043185049e-06</v>
+        <v>1.423691576817171e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>57808.00095226246</v>
+        <v>76412.9787001966</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.27104710623321</v>
+        <v>103.6935950635538</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0938997255983</v>
+        <v>141.8781514044468</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.8730082430467</v>
+        <v>128.3374997616808</v>
       </c>
       <c r="AD2" t="n">
-        <v>78271.04710623321</v>
+        <v>103693.5950635538</v>
       </c>
       <c r="AE2" t="n">
-        <v>107093.8997255983</v>
+        <v>141878.1514044468</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.31259517170654e-06</v>
+        <v>7.745159659352365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.862268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>96873.0082430467</v>
+        <v>128337.4997616808</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.41088965492685</v>
+        <v>86.74809675767587</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.02508848308179</v>
+        <v>118.6925730397327</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.00585196822867</v>
+        <v>107.364720454924</v>
       </c>
       <c r="AD3" t="n">
-        <v>61410.88965492685</v>
+        <v>86748.09675767587</v>
       </c>
       <c r="AE3" t="n">
-        <v>84025.08848308178</v>
+        <v>118692.5730397327</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.552511197785427e-06</v>
+        <v>9.552816233170665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.756944444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>76005.85196822867</v>
+        <v>107364.720454924</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.38861449656611</v>
+        <v>75.25172845542596</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.88987827804489</v>
+        <v>102.962734744628</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.26530042135524</v>
+        <v>93.13611584973242</v>
       </c>
       <c r="AD4" t="n">
-        <v>58388.61449656611</v>
+        <v>75251.72845542597</v>
       </c>
       <c r="AE4" t="n">
-        <v>79889.8782780449</v>
+        <v>102962.734744628</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.136314640000607e-06</v>
+        <v>1.040393526699375e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.363425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>72265.30042135523</v>
+        <v>93136.11584973242</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.37747159068029</v>
+        <v>74.24058554954014</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.50638794573591</v>
+        <v>101.579244412319</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.01384846462051</v>
+        <v>91.88466389299769</v>
       </c>
       <c r="AD5" t="n">
-        <v>57377.4715906803</v>
+        <v>74240.58554954015</v>
       </c>
       <c r="AE5" t="n">
-        <v>78506.38794573591</v>
+        <v>101579.244412319</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.328151923465762e-06</v>
+        <v>1.068361221225905e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>71013.8484646205</v>
+        <v>91884.66389299769</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.47513751249514</v>
+        <v>73.33825147135499</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.27177465179361</v>
+        <v>100.3446311183767</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.897064930661</v>
+        <v>90.7678803590382</v>
       </c>
       <c r="AD6" t="n">
-        <v>56475.13751249514</v>
+        <v>73338.25147135499</v>
       </c>
       <c r="AE6" t="n">
-        <v>77271.7746517936</v>
+        <v>100344.6311183767</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.463294101826004e-06</v>
+        <v>1.088063414114367e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.172453703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>69897.064930661</v>
+        <v>90767.8803590382</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.97776018086579</v>
+        <v>72.84087413972564</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.59124104391944</v>
+        <v>99.66409751050256</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.28148049518722</v>
+        <v>90.15229592356441</v>
       </c>
       <c r="AD7" t="n">
-        <v>55977.76018086579</v>
+        <v>72840.87413972564</v>
       </c>
       <c r="AE7" t="n">
-        <v>76591.24104391944</v>
+        <v>99664.09751050256</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.494468333407908e-06</v>
+        <v>1.092608262593419e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.155092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>69281.48049518722</v>
+        <v>90152.29592356441</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.03435934342946</v>
+        <v>72.89747330228931</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.66868251511784</v>
+        <v>99.74153898170096</v>
       </c>
       <c r="AC8" t="n">
-        <v>69.35153106106425</v>
+        <v>90.22234648944145</v>
       </c>
       <c r="AD8" t="n">
-        <v>56034.35934342946</v>
+        <v>72897.47330228932</v>
       </c>
       <c r="AE8" t="n">
-        <v>76668.68251511783</v>
+        <v>99741.53898170096</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.489568756423533e-06</v>
+        <v>1.091893959982722e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.16087962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>69351.53106106425</v>
+        <v>90222.34648944145</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.74764574162883</v>
+        <v>60.53311835769565</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.59394714736602</v>
+        <v>82.82408306967406</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.62006868279102</v>
+        <v>74.91946882585452</v>
       </c>
       <c r="AD2" t="n">
-        <v>45747.64574162883</v>
+        <v>60533.11835769565</v>
       </c>
       <c r="AE2" t="n">
-        <v>62593.94714736602</v>
+        <v>82824.08306967406</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989543015537151e-06</v>
+        <v>1.440335953367089e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>56620.06868279102</v>
+        <v>74919.46882585452</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.89916738373822</v>
+        <v>86.36568253623483</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.63912454801982</v>
+        <v>118.1693370310326</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.51146073153474</v>
+        <v>106.8914213565277</v>
       </c>
       <c r="AD2" t="n">
-        <v>69899.16738373821</v>
+        <v>86365.68253623483</v>
       </c>
       <c r="AE2" t="n">
-        <v>95639.12454801983</v>
+        <v>118169.3370310326</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.214037157453712e-06</v>
+        <v>9.226870799954908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.21412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>86511.46073153474</v>
+        <v>106891.4213565277</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.19839137671751</v>
+        <v>72.57956567464251</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.893118379645</v>
+        <v>99.30656374046013</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.55454708167873</v>
+        <v>89.82888467473292</v>
       </c>
       <c r="AD3" t="n">
-        <v>56198.39137671751</v>
+        <v>72579.56567464251</v>
       </c>
       <c r="AE3" t="n">
-        <v>76893.11837964501</v>
+        <v>99306.56374046013</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.33608139430342e-06</v>
+        <v>1.089293055191953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>69554.54708167873</v>
+        <v>89828.88467473292</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.43685002080488</v>
+        <v>70.81802431872988</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.48289978276669</v>
+        <v>96.89634514358181</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.37435636492268</v>
+        <v>87.64869395797686</v>
       </c>
       <c r="AD4" t="n">
-        <v>54436.85002080488</v>
+        <v>70818.02431872988</v>
       </c>
       <c r="AE4" t="n">
-        <v>74482.89978276669</v>
+        <v>96896.34514358181</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.732393352242852e-06</v>
+        <v>1.148139166660695e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>67374.35636492267</v>
+        <v>87648.69395797687</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.09201802828422</v>
+        <v>69.47319232620922</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.64284132080061</v>
+        <v>95.05628668161573</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.70991050002777</v>
+        <v>85.98424809308197</v>
       </c>
       <c r="AD5" t="n">
-        <v>53092.01802828422</v>
+        <v>69473.19232620922</v>
       </c>
       <c r="AE5" t="n">
-        <v>72642.84132080061</v>
+        <v>95056.28668161573</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.003598357358183e-06</v>
+        <v>1.188408857347992e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>65709.91050002778</v>
+        <v>85984.24809308197</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.18380033371186</v>
+        <v>69.56497463163686</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.76842192023618</v>
+        <v>95.18186728105131</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.82350586330674</v>
+        <v>86.09784345636093</v>
       </c>
       <c r="AD6" t="n">
-        <v>53183.80033371186</v>
+        <v>69564.97463163685</v>
       </c>
       <c r="AE6" t="n">
-        <v>72768.42192023619</v>
+        <v>95181.86728105131</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.988036955619883e-06</v>
+        <v>1.186098233197101e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.056712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>65823.50586330674</v>
+        <v>86097.84345636093</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.13165113450204</v>
+        <v>99.2071694994418</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4301955398168</v>
+        <v>135.7396260205049</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.7498400356956</v>
+        <v>122.7848266249059</v>
       </c>
       <c r="AD2" t="n">
-        <v>74131.65113450204</v>
+        <v>99207.16949944181</v>
       </c>
       <c r="AE2" t="n">
-        <v>101430.1955398168</v>
+        <v>135739.6260205049</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.722533788586515e-06</v>
+        <v>8.414656771063323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>91749.8400356956</v>
+        <v>122784.8266249059</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.7487851328144</v>
+        <v>75.55113823067919</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.38267963216659</v>
+        <v>103.3724004081563</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.71106950589075</v>
+        <v>93.50668359730308</v>
       </c>
       <c r="AD3" t="n">
-        <v>58748.7851328144</v>
+        <v>75551.13823067919</v>
       </c>
       <c r="AE3" t="n">
-        <v>80382.67963216659</v>
+        <v>103372.4004081563</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.936156956087088e-06</v>
+        <v>1.01992198302271e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>72711.06950589074</v>
+        <v>93506.68359730308</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.80601874167573</v>
+        <v>73.43777963894833</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.72450094700785</v>
+        <v>100.4808099481507</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.30658366366549</v>
+        <v>90.8910624724268</v>
       </c>
       <c r="AD4" t="n">
-        <v>56806.01874167573</v>
+        <v>73437.77963894833</v>
       </c>
       <c r="AE4" t="n">
-        <v>77724.50094700785</v>
+        <v>100480.8099481507</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.35057021773e-06</v>
+        <v>1.080859069406665e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.31712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>70306.58366366549</v>
+        <v>90891.0624724268</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.30356098104489</v>
+        <v>71.93532187831748</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.66877195515544</v>
+        <v>98.4250809562983</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.44705056156106</v>
+        <v>89.03152937032236</v>
       </c>
       <c r="AD5" t="n">
-        <v>55303.56098104489</v>
+        <v>71935.32187831748</v>
       </c>
       <c r="AE5" t="n">
-        <v>75668.77195515543</v>
+        <v>98425.0809562983</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.63510912739165e-06</v>
+        <v>1.12269887938019e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.155092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>68447.05056156106</v>
+        <v>89031.52937032236</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.39300372424952</v>
+        <v>71.02476462152212</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.4229073454576</v>
+        <v>97.17921634660047</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.32008952163042</v>
+        <v>87.90456833039171</v>
       </c>
       <c r="AD6" t="n">
-        <v>54393.00372424952</v>
+        <v>71024.76462152212</v>
       </c>
       <c r="AE6" t="n">
-        <v>74422.9073454576</v>
+        <v>97179.21634660047</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.778585185154732e-06</v>
+        <v>1.143796208387657e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>67320.08952163042</v>
+        <v>87904.56833039172</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.45307078794393</v>
+        <v>71.08483168521651</v>
       </c>
       <c r="AB7" t="n">
-        <v>74.50509375197606</v>
+        <v>97.26140275311893</v>
       </c>
       <c r="AC7" t="n">
-        <v>67.39443217286014</v>
+        <v>87.97891098162145</v>
       </c>
       <c r="AD7" t="n">
-        <v>54453.07078794393</v>
+        <v>71084.83168521652</v>
       </c>
       <c r="AE7" t="n">
-        <v>74505.09375197606</v>
+        <v>97261.40275311893</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.778310957215583e-06</v>
+        <v>1.143755884746588e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>67394.43217286014</v>
+        <v>87978.91098162145</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.05652068187143</v>
+        <v>117.7172549608381</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.9557928439486</v>
+        <v>161.0659415561119</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.9347487550209</v>
+        <v>145.6940341515097</v>
       </c>
       <c r="AD2" t="n">
-        <v>92056.52068187144</v>
+        <v>117717.2549608381</v>
       </c>
       <c r="AE2" t="n">
-        <v>125955.7928439486</v>
+        <v>161065.9415561119</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.887733637008686e-06</v>
+        <v>7.071438645928058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>113934.7487550209</v>
+        <v>145694.0341515097</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.26008625229586</v>
+        <v>89.92073102271144</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.9234849652827</v>
+        <v>123.0335112078976</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.53219096160339</v>
+        <v>111.2913655768656</v>
       </c>
       <c r="AD3" t="n">
-        <v>64260.08625229586</v>
+        <v>89920.73102271144</v>
       </c>
       <c r="AE3" t="n">
-        <v>87923.4849652827</v>
+        <v>123033.5112078976</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185778983318654e-06</v>
+        <v>8.949414965374342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>79532.1909616034</v>
+        <v>111291.3655768656</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.1150827442484</v>
+        <v>78.36441401547815</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.62035241781187</v>
+        <v>107.2216484498845</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.63974334497735</v>
+        <v>96.98856480838352</v>
       </c>
       <c r="AD4" t="n">
-        <v>61115.0827442484</v>
+        <v>78364.41401547815</v>
       </c>
       <c r="AE4" t="n">
-        <v>83620.35241781187</v>
+        <v>107221.6484498845</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.716643531964507e-06</v>
+        <v>9.717455199118523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.560185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>75639.74334497735</v>
+        <v>96988.56480838351</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.55298710404063</v>
+        <v>76.63172617467819</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.48302424808477</v>
+        <v>104.8509085053106</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.70639877600942</v>
+        <v>94.84408495676455</v>
       </c>
       <c r="AD5" t="n">
-        <v>59552.98710404063</v>
+        <v>76631.72617467819</v>
       </c>
       <c r="AE5" t="n">
-        <v>81483.02424808478</v>
+        <v>104850.9085053106</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.008333167289463e-06</v>
+        <v>1.013946374398594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.369212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>73706.39877600942</v>
+        <v>94844.08495676455</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.81207985297461</v>
+        <v>75.89081892361216</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.46928226065572</v>
+        <v>103.8371665178815</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.78940690106444</v>
+        <v>93.92709308181959</v>
       </c>
       <c r="AD6" t="n">
-        <v>58812.07985297461</v>
+        <v>75890.81892361215</v>
       </c>
       <c r="AE6" t="n">
-        <v>80469.28226065572</v>
+        <v>103837.1665178815</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.116168337372391e-06</v>
+        <v>1.029547670331351e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.305555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>72789.40690106445</v>
+        <v>93927.09308181959</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.90554570368212</v>
+        <v>74.98428477431966</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.22892224413032</v>
+        <v>102.5968065013561</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.6674251036596</v>
+        <v>92.80511128441475</v>
       </c>
       <c r="AD7" t="n">
-        <v>57905.54570368212</v>
+        <v>74984.28477431966</v>
       </c>
       <c r="AE7" t="n">
-        <v>79228.92224413031</v>
+        <v>102596.8065013561</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.237238064411987e-06</v>
+        <v>1.047063705578389e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.230324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>71667.4251036596</v>
+        <v>92805.11128441474</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.3331450562657</v>
+        <v>74.41188412690325</v>
       </c>
       <c r="AB8" t="n">
-        <v>78.44573842580122</v>
+        <v>101.813622683027</v>
       </c>
       <c r="AC8" t="n">
-        <v>70.9589872497462</v>
+        <v>92.09667343050134</v>
       </c>
       <c r="AD8" t="n">
-        <v>57333.1450562657</v>
+        <v>74411.88412690324</v>
       </c>
       <c r="AE8" t="n">
-        <v>78445.73842580122</v>
+        <v>101813.622683027</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.304046107929246e-06</v>
+        <v>1.056729309636877e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.195601851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>70958.98724974621</v>
+        <v>92096.67343050134</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>57.30763913298001</v>
+        <v>74.38637820361755</v>
       </c>
       <c r="AB9" t="n">
-        <v>78.41084009631984</v>
+        <v>101.7787243535456</v>
       </c>
       <c r="AC9" t="n">
-        <v>70.92741956785041</v>
+        <v>92.06510574860553</v>
       </c>
       <c r="AD9" t="n">
-        <v>57307.63913298002</v>
+        <v>74386.37820361755</v>
       </c>
       <c r="AE9" t="n">
-        <v>78410.84009631985</v>
+        <v>101778.7243535456</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.319186441087675e-06</v>
+        <v>1.058919771412414e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>70927.4195678504</v>
+        <v>92065.10574860554</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.89737032896455</v>
+        <v>82.09945717398941</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.21773633576964</v>
+        <v>112.3320992778317</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.65730676269337</v>
+        <v>101.6112813818758</v>
       </c>
       <c r="AD2" t="n">
-        <v>57897.37032896455</v>
+        <v>82099.4571739894</v>
       </c>
       <c r="AE2" t="n">
-        <v>79217.73633576964</v>
+        <v>112332.0992778317</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.734676311447189e-06</v>
+        <v>1.011335979740496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>71657.30676269336</v>
+        <v>101611.2813818758</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.40696356942114</v>
+        <v>69.51333068979821</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.07376370460061</v>
+        <v>95.11120576145781</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.0997062563214</v>
+        <v>86.03392577302334</v>
       </c>
       <c r="AD3" t="n">
-        <v>53406.96356942114</v>
+        <v>69513.33068979821</v>
       </c>
       <c r="AE3" t="n">
-        <v>73073.76370460061</v>
+        <v>95111.20576145781</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.851920241644666e-06</v>
+        <v>1.17911078175063e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>66099.7062563214</v>
+        <v>86033.92577302334</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.63258733756641</v>
+        <v>67.73895445794348</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.64598386422355</v>
+        <v>92.68342592108075</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.90363031649875</v>
+        <v>83.83784983320071</v>
       </c>
       <c r="AD4" t="n">
-        <v>51632.58733756642</v>
+        <v>67738.95445794347</v>
       </c>
       <c r="AE4" t="n">
-        <v>70645.98386422356</v>
+        <v>92683.42592108075</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.272862567200922e-06</v>
+        <v>1.242323043119016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>63903.63031649875</v>
+        <v>83837.8498332007</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.81611929186843</v>
+        <v>67.9224864122455</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.89710038095782</v>
+        <v>92.93454243781503</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.13078062532023</v>
+        <v>84.06500014202217</v>
       </c>
       <c r="AD5" t="n">
-        <v>51816.11929186843</v>
+        <v>67922.4864122455</v>
       </c>
       <c r="AE5" t="n">
-        <v>70897.10038095783</v>
+        <v>92934.54243781502</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.20436637381789e-06</v>
+        <v>1.232037075146691e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.039351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>64130.78062532023</v>
+        <v>84065.00014202217</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.8472942532113</v>
+        <v>67.47842689135138</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.93975533840933</v>
+        <v>92.32696061080456</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.16936465349919</v>
+        <v>83.51540507183495</v>
       </c>
       <c r="AD2" t="n">
-        <v>51847.2942532113</v>
+        <v>67478.42689135138</v>
       </c>
       <c r="AE2" t="n">
-        <v>70939.75533840933</v>
+        <v>92326.96061080456</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.873532545282797e-06</v>
+        <v>1.207600494354196e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.386574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>64169.36465349919</v>
+        <v>83515.40507183495</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.55537160626324</v>
+        <v>65.18650424440334</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.80384566036557</v>
+        <v>89.19105093276079</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.33274179385005</v>
+        <v>80.67878221218581</v>
       </c>
       <c r="AD3" t="n">
-        <v>49555.37160626324</v>
+        <v>65186.50424440333</v>
       </c>
       <c r="AE3" t="n">
-        <v>67803.84566036556</v>
+        <v>89191.05093276079</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.56430633006545e-06</v>
+        <v>1.313547699016508e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.033564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>61332.74179385004</v>
+        <v>80678.7822121858</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.54569349108629</v>
+        <v>65.17682612922638</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.79060363621217</v>
+        <v>89.17780890860737</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.32076356989653</v>
+        <v>80.66680398823229</v>
       </c>
       <c r="AD4" t="n">
-        <v>49545.69349108629</v>
+        <v>65176.82612922638</v>
       </c>
       <c r="AE4" t="n">
-        <v>67790.60363621217</v>
+        <v>89177.80890860737</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.574567414009019e-06</v>
+        <v>1.315121489430353e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>61320.76356989653</v>
+        <v>80666.80398823229</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.96011890158536</v>
+        <v>64.21138773574739</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.98939464912974</v>
+        <v>87.85685350651418</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.59602084403713</v>
+        <v>79.47191871574189</v>
       </c>
       <c r="AD2" t="n">
-        <v>48960.11890158536</v>
+        <v>64211.38773574739</v>
       </c>
       <c r="AE2" t="n">
-        <v>66989.39464912974</v>
+        <v>87856.85350651419</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399804618737376e-06</v>
+        <v>1.312452902756049e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>60596.02084403714</v>
+        <v>79471.91871574189</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.68101247646534</v>
+        <v>62.93228131062737</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.23926480808858</v>
+        <v>86.10672366547303</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.01292093870173</v>
+        <v>77.88881881040649</v>
       </c>
       <c r="AD3" t="n">
-        <v>47681.01247646534</v>
+        <v>62932.28131062738</v>
       </c>
       <c r="AE3" t="n">
-        <v>65239.26480808858</v>
+        <v>86106.72366547302</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.871723169916081e-06</v>
+        <v>1.386189245501129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>59012.92093870173</v>
+        <v>77888.81881040649</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.48918853703225</v>
+        <v>58.98744950934086</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.87207048082432</v>
+        <v>80.70923076125914</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.06252550863444</v>
+        <v>73.00645505354018</v>
       </c>
       <c r="AD2" t="n">
-        <v>44489.18853703225</v>
+        <v>58987.44950934086</v>
       </c>
       <c r="AE2" t="n">
-        <v>60872.07048082432</v>
+        <v>80709.23076125914</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989389207241931e-06</v>
+        <v>1.464979304214957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.265046296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>55062.52550863443</v>
+        <v>73006.45505354018</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.19379744380562</v>
+        <v>96.91479216087669</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.77873862813617</v>
+        <v>132.6030942133311</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.35143445032179</v>
+        <v>119.9476410112577</v>
       </c>
       <c r="AD2" t="n">
-        <v>72193.79744380563</v>
+        <v>96914.79216087669</v>
       </c>
       <c r="AE2" t="n">
-        <v>98778.73862813617</v>
+        <v>132603.0942133311</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.931604422161007e-06</v>
+        <v>8.763238514780604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>89351.43445032179</v>
+        <v>119947.6410112577</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.50969354991644</v>
+        <v>74.01883348233802</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.68729986358386</v>
+        <v>101.2758334509625</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.17749440294055</v>
+        <v>91.61021004795296</v>
       </c>
       <c r="AD3" t="n">
-        <v>57509.69354991644</v>
+        <v>74018.83348233803</v>
       </c>
       <c r="AE3" t="n">
-        <v>78687.29986358386</v>
+        <v>101275.8334509625</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.130865135817698e-06</v>
+        <v>1.053500327304997e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>71177.49440294056</v>
+        <v>91610.21004795296</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.39133132716554</v>
+        <v>71.90047125958712</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.78886321487202</v>
+        <v>98.37739680225064</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.55568047999947</v>
+        <v>88.98839612501187</v>
       </c>
       <c r="AD4" t="n">
-        <v>55391.33132716554</v>
+        <v>71900.47125958712</v>
       </c>
       <c r="AE4" t="n">
-        <v>75788.86321487202</v>
+        <v>98377.39680225065</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.596167214095584e-06</v>
+        <v>1.122243163191661e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>68555.68047999947</v>
+        <v>88988.39612501187</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.35479736044891</v>
+        <v>70.86393729287049</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.37063171295981</v>
+        <v>96.95916530033843</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.27280300212887</v>
+        <v>87.70551864714129</v>
       </c>
       <c r="AD5" t="n">
-        <v>54354.79736044891</v>
+        <v>70863.93729287048</v>
       </c>
       <c r="AE5" t="n">
-        <v>74370.6317129598</v>
+        <v>96959.16530033843</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.770212348613333e-06</v>
+        <v>1.147956257281648e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>67272.80300212887</v>
+        <v>87705.51864714129</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.9898629138394</v>
+        <v>70.49900284626098</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.8713123033374</v>
+        <v>96.45984589071601</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.82113793616149</v>
+        <v>87.2538535811739</v>
       </c>
       <c r="AD6" t="n">
-        <v>53989.8629138394</v>
+        <v>70499.00284626098</v>
       </c>
       <c r="AE6" t="n">
-        <v>73871.3123033374</v>
+        <v>96459.84589071601</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.829704542907436e-06</v>
+        <v>1.156745519870015e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.091435185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>66821.1379361615</v>
+        <v>87253.8535811739</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.54041266385093</v>
+        <v>115.04210983995</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.5131428508431</v>
+        <v>157.4056899826412</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8206604454667</v>
+        <v>142.3831118510146</v>
       </c>
       <c r="AD2" t="n">
-        <v>89540.41266385093</v>
+        <v>115042.10983995</v>
       </c>
       <c r="AE2" t="n">
-        <v>122513.1428508431</v>
+        <v>157405.6899826412</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.084361052128084e-06</v>
+        <v>7.383351584170323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>110820.6604454667</v>
+        <v>142383.1118510146</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.79842181479756</v>
+        <v>88.30002948234552</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.92357119781457</v>
+        <v>120.8159958600643</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.72314615720519</v>
+        <v>109.2854867815265</v>
       </c>
       <c r="AD3" t="n">
-        <v>62798.42181479756</v>
+        <v>88300.02948234552</v>
       </c>
       <c r="AE3" t="n">
-        <v>85923.57119781457</v>
+        <v>120815.9958600643</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369343084945369e-06</v>
+        <v>9.249362677867314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>77723.14615720519</v>
+        <v>109285.4867815265</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.72311013198578</v>
+        <v>76.69582446737824</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.71579408021751</v>
+        <v>104.9386106171999</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.91695338205797</v>
+        <v>94.92341690218583</v>
       </c>
       <c r="AD4" t="n">
-        <v>59723.11013198578</v>
+        <v>76695.82446737825</v>
       </c>
       <c r="AE4" t="n">
-        <v>81715.7940802175</v>
+        <v>104938.6106171999</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.927522668593871e-06</v>
+        <v>1.005993377439826e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.461805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>73916.95338205797</v>
+        <v>94923.41690218584</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.61911859835968</v>
+        <v>75.59183293375216</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.20526415924198</v>
+        <v>103.4280806962243</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.5505863166978</v>
+        <v>93.55704983682568</v>
       </c>
       <c r="AD5" t="n">
-        <v>58619.11859835968</v>
+        <v>75591.83293375216</v>
       </c>
       <c r="AE5" t="n">
-        <v>80205.26415924198</v>
+        <v>103428.0806962243</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.12507671268712e-06</v>
+        <v>1.034681563614264e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.334490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>72550.58631669781</v>
+        <v>93557.04983682568</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.79087099163124</v>
+        <v>74.7635853270237</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.07201924401112</v>
+        <v>102.2948357809935</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.52549670565699</v>
+        <v>92.53196022578486</v>
       </c>
       <c r="AD6" t="n">
-        <v>57790.87099163124</v>
+        <v>74763.5853270237</v>
       </c>
       <c r="AE6" t="n">
-        <v>79072.01924401111</v>
+        <v>102294.8357809935</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.240748048420724e-06</v>
+        <v>1.051478996589138e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.265046296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>71525.49670565699</v>
+        <v>92531.96022578486</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.88047469538227</v>
+        <v>73.85318903077474</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.82637486763393</v>
+        <v>101.0491914046163</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.39873488028799</v>
+        <v>91.40519840041586</v>
       </c>
       <c r="AD7" t="n">
-        <v>56880.47469538227</v>
+        <v>73853.18903077474</v>
       </c>
       <c r="AE7" t="n">
-        <v>77826.37486763393</v>
+        <v>101049.1914046163</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.373553901353446e-06</v>
+        <v>1.070764651061444e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>70398.73488028799</v>
+        <v>91405.19840041586</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.32851989659373</v>
+        <v>73.30123423198621</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.07116596140467</v>
+        <v>100.2939824983871</v>
       </c>
       <c r="AC8" t="n">
-        <v>69.71560205212666</v>
+        <v>90.72206557225454</v>
       </c>
       <c r="AD8" t="n">
-        <v>56328.51989659373</v>
+        <v>73301.23423198621</v>
       </c>
       <c r="AE8" t="n">
-        <v>77071.16596140468</v>
+        <v>100293.982498387</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.468407599368496e-06</v>
+        <v>1.084539011188971e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>69715.60205212666</v>
+        <v>90722.06557225453</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.05556834950594</v>
+        <v>57.37223714459959</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.91052809339288</v>
+        <v>78.49922594568085</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.2881899736168</v>
+        <v>71.00736999579874</v>
       </c>
       <c r="AD2" t="n">
-        <v>43055.56834950594</v>
+        <v>57372.2371445996</v>
       </c>
       <c r="AE2" t="n">
-        <v>58910.52809339288</v>
+        <v>78499.22594568085</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673541814500883e-06</v>
+        <v>1.445827744346266e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>53288.1899736168</v>
+        <v>71007.36999579874</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.05319608972876</v>
+        <v>70.02361889593192</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.95796754865172</v>
+        <v>95.80940459741637</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.89952292648445</v>
+        <v>86.66548949200649</v>
       </c>
       <c r="AD2" t="n">
-        <v>54053.19608972876</v>
+        <v>70023.61889593191</v>
       </c>
       <c r="AE2" t="n">
-        <v>73957.96754865172</v>
+        <v>95809.40459741637</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399104898588956e-06</v>
+        <v>1.126074673997705e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>66899.52292648445</v>
+        <v>86665.48949200648</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.83125550409095</v>
+        <v>66.6310861097019</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.54956629739752</v>
+        <v>91.16759157131531</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.91185330341852</v>
+        <v>82.46668458628953</v>
       </c>
       <c r="AD3" t="n">
-        <v>50831.25550409095</v>
+        <v>66631.08610970189</v>
       </c>
       <c r="AE3" t="n">
-        <v>69549.56629739751</v>
+        <v>91167.59157131531</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319723539088421e-06</v>
+        <v>1.266184234503375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.091435185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>62911.85330341852</v>
+        <v>82466.68458628953</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.16952592160381</v>
+        <v>65.82646713991134</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.69820575394</v>
+        <v>90.06667639956476</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.19156997683901</v>
+        <v>81.47083921338634</v>
       </c>
       <c r="AD4" t="n">
-        <v>42169.52592160381</v>
+        <v>65826.46713991134</v>
       </c>
       <c r="AE4" t="n">
-        <v>57698.20575394</v>
+        <v>90066.67639956475</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.505258176982181e-06</v>
+        <v>1.294420873900303e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.998842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>52191.569976839</v>
+        <v>81470.83921338634</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.89961327166822</v>
+        <v>84.23214508628141</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.90324639778547</v>
+        <v>115.2501369669785</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.03669095212875</v>
+        <v>104.250825649463</v>
       </c>
       <c r="AD2" t="n">
-        <v>67899.61327166822</v>
+        <v>84232.14508628141</v>
       </c>
       <c r="AE2" t="n">
-        <v>92903.24639778546</v>
+        <v>115250.1369669785</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.484623114849565e-06</v>
+        <v>9.680963194856968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.052083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>84036.69095212875</v>
+        <v>104250.825649463</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.86658065598311</v>
+        <v>71.11377161602468</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.07087619619485</v>
+        <v>97.30099964319027</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.90621713468352</v>
+        <v>88.01472880007897</v>
       </c>
       <c r="AD3" t="n">
-        <v>54866.58065598311</v>
+        <v>71113.77161602468</v>
       </c>
       <c r="AE3" t="n">
-        <v>75070.87619619485</v>
+        <v>97300.99964319027</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.566591670597318e-06</v>
+        <v>1.129624562232763e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>67906.21713468351</v>
+        <v>88014.72880007897</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.06721595818649</v>
+        <v>69.31440691822806</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.60890603430281</v>
+        <v>94.83902948129823</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.67921394964483</v>
+        <v>85.78772561504032</v>
       </c>
       <c r="AD4" t="n">
-        <v>53067.21595818649</v>
+        <v>69314.40691822807</v>
       </c>
       <c r="AE4" t="n">
-        <v>72608.90603430281</v>
+        <v>94839.02948129823</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.980282200727069e-06</v>
+        <v>1.191384863877369e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>65679.21394964484</v>
+        <v>85787.72561504031</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.63828218090842</v>
+        <v>68.88547314095</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.02201991700854</v>
+        <v>94.25214336400394</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.1483394196851</v>
+        <v>85.25685108508056</v>
       </c>
       <c r="AD5" t="n">
-        <v>52638.28218090842</v>
+        <v>68885.47314094999</v>
       </c>
       <c r="AE5" t="n">
-        <v>72022.01991700854</v>
+        <v>94252.14336400395</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.052843598952045e-06</v>
+        <v>1.20221763261569e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.068287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>65148.3394196851</v>
+        <v>85256.85108508056</v>
       </c>
     </row>
   </sheetData>
